--- a/Recursos/MATRICULADOS.xlsx
+++ b/Recursos/MATRICULADOS.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-2025-2-BIC01-U\Recursos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAFE649-DEB7-4080-8875-890016C46E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LISTA" sheetId="1" r:id="rId4"/>
+    <sheet name="LISTA" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -295,65 +301,93 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">MATRICULADOS P.A. 2025-2 (FIIS)</t>
+      <t>MATRICULADOS P.A. 2025-2 (FIIS)</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
       <t xml:space="preserve">
  BIC01-U (INTRODUCCION A LA COMPUTACION)</t>
     </r>
   </si>
+  <si>
+    <t>14.SET</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -376,37 +410,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,7 +522,13 @@
     <xdr:ext cx="647700" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="UNI_LOGO" descr="UNI LOGO"/>
+        <xdr:cNvPr id="2" name="UNI_LOGO" descr="UNI LOGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -434,7 +540,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -731,28 +840,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="2"/>
-    <col min="2" max="2" width="14" customWidth="true" style="2"/>
-    <col min="3" max="3" width="43.418" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="2"/>
-    <col min="5" max="5" width="13.711" bestFit="true" customWidth="true" style="2"/>
-    <col min="6" max="6" width="33.135" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20.566" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customHeight="1" ht="17">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -760,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customHeight="1" ht="17">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -768,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customHeight="1" ht="17">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -776,62 +882,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customHeight="1" ht="40">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="true"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">MATRICULADOS P.A. 2025-2 (FIIS)</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="Arial"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">
- BIC01-U (INTRODUCCION A LA COMPUTACION)</t>
-          </r>
-        </is>
-      </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="7" spans="1:7" customHeight="1" ht="15">
-      <c r="A7" s="6" t="s">
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customHeight="1" ht="15">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -854,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" customHeight="1" ht="15">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -877,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" customHeight="1" ht="15">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -900,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" customHeight="1" ht="15">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -923,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" customHeight="1" ht="15">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -946,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" customHeight="1" ht="15">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -969,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" customHeight="1" ht="15">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -992,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" customHeight="1" ht="15">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>8</v>
       </c>
@@ -1015,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customHeight="1" ht="15">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -1038,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customHeight="1" ht="15">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -1061,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customHeight="1" ht="15">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>11</v>
       </c>
@@ -1084,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customHeight="1" ht="15">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -1107,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customHeight="1" ht="15">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -1130,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" customHeight="1" ht="15">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>14</v>
       </c>
@@ -1153,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" customHeight="1" ht="15">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>15</v>
       </c>
@@ -1176,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" customHeight="1" ht="15">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>16</v>
       </c>
@@ -1199,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customHeight="1" ht="15">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>17</v>
       </c>
@@ -1222,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customHeight="1" ht="15">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>18</v>
       </c>
@@ -1245,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" customHeight="1" ht="15">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -1268,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" customHeight="1" ht="15">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -1291,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" customHeight="1" ht="15">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>21</v>
       </c>
@@ -1314,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" customHeight="1" ht="15">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -1337,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" customHeight="1" ht="15">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -1360,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customHeight="1" ht="15">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>24</v>
       </c>
@@ -1383,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customHeight="1" ht="15">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>25</v>
       </c>
@@ -1406,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" customHeight="1" ht="15">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>26</v>
       </c>
@@ -1430,21 +1515,399 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A5:G5"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
   <drawing r:id="rId1"/>
-  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E36106-38C0-4313-B1A4-BF1C2EC0CF13}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>